--- a/set_up_grasp_models/tests/test_files/test_check_models/model_v2_3_no_reg_ma_EMP_ED_2.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_check_models/model_v2_3_no_reg_ma_EMP_ED_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="179">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -45,7 +45,7 @@
     <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
   </si>
   <si>
-    <t xml:space="preserve">ORACLE</t>
+    <t xml:space="preserve">GRASP</t>
   </si>
   <si>
     <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
@@ -60,6 +60,15 @@
     <t xml:space="preserve">gurobi</t>
   </si>
   <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
   </si>
   <si>
@@ -378,34 +387,25 @@
     <t xml:space="preserve">max (M)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluxes (umol/gdcw/h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_std</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_mean2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_std2</t>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std (mmol/L/h)</t>
   </si>
   <si>
     <t xml:space="preserve">enzyme/rxn</t>
   </si>
   <si>
-    <t xml:space="preserve">MBo10_LB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_meas2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_UB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction ID</t>
+    <t xml:space="preserve">lower_bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upper_bound</t>
   </si>
   <si>
     <t xml:space="preserve">kinetic mechanism</t>
@@ -669,7 +669,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -682,39 +682,42 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,45 +762,45 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -805,14 +808,28 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -825,38 +842,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -870,7 +884,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -884,7 +898,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -898,7 +912,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -912,7 +926,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -926,7 +940,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -940,7 +954,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -954,7 +968,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -968,7 +982,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -982,7 +996,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -996,7 +1010,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -1010,7 +1024,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -1024,7 +1038,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1038,7 +1052,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1052,7 +1066,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -1066,7 +1080,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1080,7 +1094,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1094,7 +1108,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.99</v>
@@ -1118,38 +1132,35 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.850553653712464</v>
@@ -1163,7 +1174,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1177,7 +1188,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1191,7 +1202,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1205,7 +1216,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.824707049979672</v>
@@ -1219,7 +1230,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.955157747123127</v>
@@ -1233,7 +1244,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.980758075213057</v>
@@ -1247,7 +1258,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.952987338158675</v>
@@ -1261,7 +1272,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -1275,7 +1286,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.873263888888888</v>
@@ -1289,7 +1300,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.925834010503215</v>
@@ -1303,7 +1314,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.998343913039016</v>
@@ -1317,7 +1328,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1331,7 +1342,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.928124943041768</v>
@@ -1345,7 +1356,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.805792525521532</v>
@@ -1359,7 +1370,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1373,7 +1384,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1387,7 +1398,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.944333167529983</v>
@@ -1401,7 +1412,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -1415,7 +1426,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -1429,7 +1440,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -1443,7 +1454,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -1457,7 +1468,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.99</v>
@@ -1471,7 +1482,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.99</v>
@@ -1485,7 +1496,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.99</v>
@@ -1509,7 +1520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1519,17 +1530,15 @@
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="28.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>125</v>
@@ -1603,16 +1612,16 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>148</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1635,13 +1644,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>150</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>151</v>
@@ -1667,16 +1676,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>148</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1687,19 +1696,19 @@
       <c r="V4" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>150</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>156</v>
@@ -1713,13 +1722,13 @@
       <c r="V5" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="W5" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>158</v>
@@ -1728,7 +1737,7 @@
         <v>159</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1751,16 +1760,16 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>148</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1777,7 +1786,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>164</v>
@@ -1809,7 +1818,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>167</v>
@@ -1841,16 +1850,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>148</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1867,16 +1876,16 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>148</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1893,7 +1902,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>167</v>
@@ -1931,7 +1940,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>178</v>
@@ -1945,7 +1954,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>178</v>
@@ -1959,7 +1968,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>178</v>
@@ -1973,7 +1982,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>178</v>
@@ -1987,7 +1996,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>178</v>
@@ -2001,7 +2010,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>178</v>
@@ -2015,7 +2024,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>178</v>
@@ -2043,7 +2052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2053,94 +2062,91 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-1</v>
@@ -2220,7 +2226,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -2300,7 +2306,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -2380,7 +2386,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -2460,7 +2466,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2540,7 +2546,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -2620,7 +2626,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2700,7 +2706,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2780,7 +2786,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2860,7 +2866,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2940,7 +2946,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -3020,7 +3026,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -3100,7 +3106,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -3180,7 +3186,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -3260,7 +3266,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -3340,7 +3346,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>-1</v>
@@ -3420,7 +3426,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -3500,7 +3506,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -3590,7 +3596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3600,29 +3606,28 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -3630,10 +3635,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -3641,10 +3646,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3652,10 +3657,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -3663,10 +3668,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -3674,10 +3679,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -3685,10 +3690,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -3696,10 +3701,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -3707,10 +3712,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3718,10 +3723,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -3729,10 +3734,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3740,10 +3745,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3751,10 +3756,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -3762,10 +3767,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -3773,10 +3778,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -3784,10 +3789,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -3795,10 +3800,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
@@ -3806,10 +3811,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
@@ -3817,10 +3822,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -3828,10 +3833,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -3839,10 +3844,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -3850,10 +3855,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -3861,10 +3866,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
@@ -3872,10 +3877,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -3883,10 +3888,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -3904,7 +3909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3914,32 +3919,31 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3947,10 +3951,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3958,10 +3962,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3969,10 +3973,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3980,10 +3984,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3991,10 +3995,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -4002,10 +4006,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -4013,10 +4017,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -4024,10 +4028,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -4035,10 +4039,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -4046,10 +4050,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -4057,10 +4061,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -4068,10 +4072,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -4079,10 +4083,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -4090,10 +4094,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -4101,10 +4105,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -4112,10 +4116,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -4123,10 +4127,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -4144,7 +4148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4154,139 +4158,136 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4301,7 +4302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4311,139 +4312,136 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4458,7 +4456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4468,25 +4466,22 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-45.61</v>
@@ -4497,7 +4492,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>13.43</v>
@@ -4508,7 +4503,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-7.92</v>
@@ -4519,7 +4514,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-12.1</v>
@@ -4530,7 +4525,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-45.36</v>
@@ -4541,7 +4536,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-26</v>
@@ -4552,7 +4547,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>7.44</v>
@@ -4563,7 +4558,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-18.92</v>
@@ -4574,7 +4569,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>3.88</v>
@@ -4585,7 +4580,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-40.39</v>
@@ -4596,7 +4591,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-28.05</v>
@@ -4607,7 +4602,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-5</v>
@@ -4618,7 +4613,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-5</v>
@@ -4629,7 +4624,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>-5</v>
@@ -4640,7 +4635,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>-5</v>
@@ -4651,7 +4646,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>-5</v>
@@ -4662,7 +4657,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>-5</v>
@@ -4673,7 +4668,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>-5</v>
@@ -4694,36 +4689,35 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R11" activeCellId="0" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>5.68404407429739E-006</v>
@@ -4734,7 +4728,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2.31E-013</v>
@@ -4745,7 +4739,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>12.705</v>
@@ -4756,7 +4750,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2.31E-013</v>
@@ -4767,7 +4761,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>3.91441295167676E-005</v>
@@ -4778,7 +4772,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>4.12668442474647E-005</v>
@@ -4789,7 +4783,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.000204024484477648</v>
@@ -4800,7 +4794,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2.9508706943754E-006</v>
@@ -4811,7 +4805,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2.31E-013</v>
@@ -4822,7 +4816,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2.1181015625E-005</v>
@@ -4833,7 +4827,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>4.6978481300921E-005</v>
@@ -4844,7 +4838,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>7.06686318362668E-007</v>
@@ -4855,7 +4849,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>2.31E-013</v>
@@ -4866,7 +4860,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1.44260985653663E-005</v>
@@ -4877,7 +4871,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.000101488876111485</v>
@@ -4888,7 +4882,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2.31E-013</v>
@@ -4899,7 +4893,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2.31E-013</v>
@@ -4910,7 +4904,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>7.42285216893882E-005</v>
@@ -4921,7 +4915,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1E-012</v>
@@ -4932,7 +4926,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1E-012</v>
@@ -4943,7 +4937,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1E-012</v>
@@ -4954,7 +4948,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1E-012</v>
@@ -4965,7 +4959,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1E-012</v>
@@ -4976,7 +4970,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>1E-012</v>
@@ -4987,7 +4981,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1E-012</v>
@@ -5008,41 +5002,35 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>6110</v>
@@ -5050,16 +5038,10 @@
       <c r="C2" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>6110</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>6110</v>
@@ -5067,16 +5049,10 @@
       <c r="C3" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>6110</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>570</v>
@@ -5084,16 +5060,10 @@
       <c r="C4" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>570</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>460</v>
@@ -5101,16 +5071,10 @@
       <c r="C5" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>460</v>
@@ -5118,16 +5082,10 @@
       <c r="C6" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>460</v>
@@ -5135,16 +5093,10 @@
       <c r="C7" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>5110</v>
@@ -5152,16 +5104,10 @@
       <c r="C8" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>5110</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>5110</v>
@@ -5169,16 +5115,10 @@
       <c r="C9" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>5110</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>4360</v>
@@ -5186,16 +5126,10 @@
       <c r="C10" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>4360</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>4360</v>
@@ -5203,16 +5137,10 @@
       <c r="C11" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>4360</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>3890</v>
@@ -5220,16 +5148,10 @@
       <c r="C12" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>3890</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>10000</v>
@@ -5237,16 +5159,10 @@
       <c r="C13" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>470</v>
@@ -5254,16 +5170,10 @@
       <c r="C14" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>470</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>80</v>
@@ -5271,16 +5181,10 @@
       <c r="C15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>750</v>
@@ -5288,16 +5192,10 @@
       <c r="C16" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>-6110</v>
@@ -5305,16 +5203,10 @@
       <c r="C17" s="0" t="n">
         <v>611</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>-6110</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>-110</v>
@@ -5322,27 +5214,15 @@
       <c r="C18" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>-110</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>570</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>570</v>
-      </c>
-      <c r="E19" s="0" t="n">
         <v>57</v>
       </c>
     </row>
